--- a/biology/Botanique/Ipomoea_ramosissima/Ipomoea_ramosissima.xlsx
+++ b/biology/Botanique/Ipomoea_ramosissima/Ipomoea_ramosissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea ramosissima est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire d'Amérique du Nord (Mexique) et d'Amérique du Sud. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum)[2]. Cette espèce diploïde (2n=2x=30) est un parent sauvage de la patate douce (Ipomoea batatas).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea ramosissima est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire d'Amérique du Nord (Mexique) et d'Amérique du Sud. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum). Cette espèce diploïde (2n=2x=30) est un parent sauvage de la patate douce (Ipomoea batatas).
 </t>
         </is>
       </c>
@@ -513,16 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (2 octobre 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (2 octobre 2019) :
 Convolvulus ramosissimus Poir.
 Ipomoea dichotoma var. trilobata Meisn.
 Ipomoea ebracteata (Poir.) Choisy
 Ipomoea perplexa L.O. Williams
 Ipomoea quesadana Standl.
-Ipomoea ramosissima f. rosea (Hallier) O'Donell
-Liste des variétés
-Selon Tropicos                                           (2 octobre 2019)[3] :
+Ipomoea ramosissima f. rosea (Hallier) O'Donell</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ipomoea_ramosissima</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_ramosissima</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (2 octobre 2019) :
 Ipomoea ramosissima var. rosea Hallier</t>
         </is>
       </c>
